--- a/Code/Results/Cases/Case_1_127/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_127/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018760352108479</v>
+        <v>1.056668791459715</v>
       </c>
       <c r="D2">
-        <v>1.056001600927087</v>
+        <v>1.06877599645973</v>
       </c>
       <c r="E2">
-        <v>1.020210626128472</v>
+        <v>1.052691140899335</v>
       </c>
       <c r="F2">
-        <v>1.052699256792799</v>
+        <v>1.075244493472078</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062466593490957</v>
+        <v>1.054580223426608</v>
       </c>
       <c r="J2">
-        <v>1.040394065667587</v>
+        <v>1.061669224238124</v>
       </c>
       <c r="K2">
-        <v>1.066732215957424</v>
+        <v>1.071480274395791</v>
       </c>
       <c r="L2">
-        <v>1.031395396226894</v>
+        <v>1.05543917352213</v>
       </c>
       <c r="M2">
-        <v>1.063470166765597</v>
+        <v>1.077931574523797</v>
       </c>
       <c r="N2">
-        <v>1.041871544575703</v>
+        <v>1.063176916311704</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026765198260134</v>
+        <v>1.058187082097106</v>
       </c>
       <c r="D3">
-        <v>1.061597238274478</v>
+        <v>1.069837089383537</v>
       </c>
       <c r="E3">
-        <v>1.027168925616452</v>
+        <v>1.054026462375493</v>
       </c>
       <c r="F3">
-        <v>1.059346785294987</v>
+        <v>1.07655252367017</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065774210830084</v>
+        <v>1.055104899635551</v>
       </c>
       <c r="J3">
-        <v>1.046551888653406</v>
+        <v>1.062836940710988</v>
       </c>
       <c r="K3">
-        <v>1.071498267949882</v>
+        <v>1.072356801852512</v>
       </c>
       <c r="L3">
-        <v>1.0374655874533</v>
+        <v>1.056586051399844</v>
       </c>
       <c r="M3">
-        <v>1.069272709575858</v>
+        <v>1.079055680242195</v>
       </c>
       <c r="N3">
-        <v>1.048038112376473</v>
+        <v>1.064346291075899</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031775326901729</v>
+        <v>1.059167296141315</v>
       </c>
       <c r="D4">
-        <v>1.065108394318977</v>
+        <v>1.07052240456511</v>
       </c>
       <c r="E4">
-        <v>1.031523734455673</v>
+        <v>1.054888035637026</v>
       </c>
       <c r="F4">
-        <v>1.063520274620348</v>
+        <v>1.077397783988321</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067833642567099</v>
+        <v>1.055442185329456</v>
       </c>
       <c r="J4">
-        <v>1.050399719884379</v>
+        <v>1.063589908028761</v>
       </c>
       <c r="K4">
-        <v>1.074479738207041</v>
+        <v>1.072922090208696</v>
       </c>
       <c r="L4">
-        <v>1.041256019313085</v>
+        <v>1.057325154484324</v>
       </c>
       <c r="M4">
-        <v>1.07290805927334</v>
+        <v>1.0797813769249</v>
       </c>
       <c r="N4">
-        <v>1.051891407969147</v>
+        <v>1.065100327693629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033843429772721</v>
+        <v>1.059578855919119</v>
       </c>
       <c r="D5">
-        <v>1.066559695289276</v>
+        <v>1.070810208503757</v>
       </c>
       <c r="E5">
-        <v>1.033321185315913</v>
+        <v>1.055249658342478</v>
       </c>
       <c r="F5">
-        <v>1.06524593678453</v>
+        <v>1.077752868634738</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068681080821153</v>
+        <v>1.055583453371064</v>
       </c>
       <c r="J5">
-        <v>1.051986480131477</v>
+        <v>1.063905834959876</v>
       </c>
       <c r="K5">
-        <v>1.075709935754799</v>
+        <v>1.07315929094637</v>
       </c>
       <c r="L5">
-        <v>1.042818473747396</v>
+        <v>1.057635162144732</v>
       </c>
       <c r="M5">
-        <v>1.074409393958339</v>
+        <v>1.080086064436976</v>
       </c>
       <c r="N5">
-        <v>1.0534804215978</v>
+        <v>1.065416703277224</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034188502530318</v>
+        <v>1.05964792827298</v>
       </c>
       <c r="D6">
-        <v>1.066801961217927</v>
+        <v>1.070858514440859</v>
       </c>
       <c r="E6">
-        <v>1.033621087854768</v>
+        <v>1.0553103424594</v>
       </c>
       <c r="F6">
-        <v>1.065534037912992</v>
+        <v>1.077812473672088</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068822321006863</v>
+        <v>1.055607142099205</v>
       </c>
       <c r="J6">
-        <v>1.052251144900724</v>
+        <v>1.06395884431055</v>
       </c>
       <c r="K6">
-        <v>1.075915166411976</v>
+        <v>1.073199091939814</v>
       </c>
       <c r="L6">
-        <v>1.04307904696717</v>
+        <v>1.057687172310785</v>
       </c>
       <c r="M6">
-        <v>1.074659936961956</v>
+        <v>1.080137199787901</v>
       </c>
       <c r="N6">
-        <v>1.053745462221376</v>
+        <v>1.065469787907256</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03180310786564</v>
+        <v>1.059172797463226</v>
       </c>
       <c r="D7">
-        <v>1.06512788225669</v>
+        <v>1.070526251398669</v>
       </c>
       <c r="E7">
-        <v>1.031547880406002</v>
+        <v>1.054892869936529</v>
       </c>
       <c r="F7">
-        <v>1.063543444255658</v>
+        <v>1.077402529671949</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067845036911819</v>
+        <v>1.055444075025991</v>
       </c>
       <c r="J7">
-        <v>1.050421041213006</v>
+        <v>1.063594131888882</v>
       </c>
       <c r="K7">
-        <v>1.074496265714761</v>
+        <v>1.072925261445494</v>
       </c>
       <c r="L7">
-        <v>1.041277016564776</v>
+        <v>1.057329299607069</v>
       </c>
       <c r="M7">
-        <v>1.072928224141933</v>
+        <v>1.079785449720992</v>
       </c>
       <c r="N7">
-        <v>1.051912759576506</v>
+        <v>1.065104557552117</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021502270649229</v>
+        <v>1.05718237068587</v>
       </c>
       <c r="D8">
-        <v>1.057916279131454</v>
+        <v>1.069134866171341</v>
       </c>
       <c r="E8">
-        <v>1.022594084167614</v>
+        <v>1.053142935341904</v>
       </c>
       <c r="F8">
-        <v>1.054973407308528</v>
+        <v>1.075686784475096</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063601784419157</v>
+        <v>1.054758000863465</v>
       </c>
       <c r="J8">
-        <v>1.042504606748798</v>
+        <v>1.062064407193245</v>
       </c>
       <c r="K8">
-        <v>1.068364980317215</v>
+        <v>1.071776893626905</v>
       </c>
       <c r="L8">
-        <v>1.033476460280091</v>
+        <v>1.055827392888272</v>
       </c>
       <c r="M8">
-        <v>1.065456865705103</v>
+        <v>1.078311821491944</v>
       </c>
       <c r="N8">
-        <v>1.043985082867331</v>
+        <v>1.063572660471949</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001929609279331</v>
+        <v>1.053657536915863</v>
       </c>
       <c r="D9">
-        <v>1.044296435171068</v>
+        <v>1.066673036215274</v>
       </c>
       <c r="E9">
-        <v>1.005582435255984</v>
+        <v>1.050040039428788</v>
       </c>
       <c r="F9">
-        <v>1.03880449289551</v>
+        <v>1.072654554191685</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055455287526586</v>
+        <v>1.053531934376027</v>
       </c>
       <c r="J9">
-        <v>1.027414411595223</v>
+        <v>1.059348407711782</v>
       </c>
       <c r="K9">
-        <v>1.056709508351316</v>
+        <v>1.069738697405493</v>
       </c>
       <c r="L9">
-        <v>1.018585586012017</v>
+        <v>1.053157486885594</v>
       </c>
       <c r="M9">
-        <v>1.051297873762942</v>
+        <v>1.075702020366441</v>
       </c>
       <c r="N9">
-        <v>1.028873457905768</v>
+        <v>1.060852803959693</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9877288095878204</v>
+        <v>1.051295308726367</v>
       </c>
       <c r="D10">
-        <v>1.034487496593473</v>
+        <v>1.065024780622808</v>
       </c>
       <c r="E10">
-        <v>0.9932472059297914</v>
+        <v>1.047957943513224</v>
       </c>
       <c r="F10">
-        <v>1.027167592225538</v>
+        <v>1.070626724937608</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049493804540031</v>
+        <v>1.052702833544543</v>
       </c>
       <c r="J10">
-        <v>1.016437896986911</v>
+        <v>1.05752353148338</v>
       </c>
       <c r="K10">
-        <v>1.048260789137004</v>
+        <v>1.068369784531649</v>
       </c>
       <c r="L10">
-        <v>1.007739464019131</v>
+        <v>1.051361354850346</v>
       </c>
       <c r="M10">
-        <v>1.041063061418968</v>
+        <v>1.073953003139323</v>
       </c>
       <c r="N10">
-        <v>1.017881355387689</v>
+        <v>1.059025336197731</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9812534125465594</v>
+        <v>1.050269375117456</v>
       </c>
       <c r="D11">
-        <v>1.030036281841449</v>
+        <v>1.064309333321924</v>
       </c>
       <c r="E11">
-        <v>0.9876259796425215</v>
+        <v>1.047053052465871</v>
       </c>
       <c r="F11">
-        <v>1.02188787229638</v>
+        <v>1.069747062681743</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046765041659816</v>
+        <v>1.052340994729449</v>
       </c>
       <c r="J11">
-        <v>1.011427415622737</v>
+        <v>1.056729863216388</v>
       </c>
       <c r="K11">
-        <v>1.044413149191573</v>
+        <v>1.067774567356987</v>
       </c>
       <c r="L11">
-        <v>1.002785086518425</v>
+        <v>1.050579658418299</v>
       </c>
       <c r="M11">
-        <v>1.036408492206961</v>
+        <v>1.073193409181385</v>
       </c>
       <c r="N11">
-        <v>1.012863758565267</v>
+        <v>1.058230540830765</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9787937745468223</v>
+        <v>1.049887824170208</v>
       </c>
       <c r="D12">
-        <v>1.028349167644813</v>
+        <v>1.064043316903167</v>
       </c>
       <c r="E12">
-        <v>0.9854914897605649</v>
+        <v>1.046716425049979</v>
       </c>
       <c r="F12">
-        <v>1.01988680420306</v>
+        <v>1.069420069289574</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045727142531832</v>
+        <v>1.052206161859452</v>
       </c>
       <c r="J12">
-        <v>1.009523548394583</v>
+        <v>1.056434526677642</v>
       </c>
       <c r="K12">
-        <v>1.042952676369822</v>
+        <v>1.067553100708999</v>
       </c>
       <c r="L12">
-        <v>1.00090203046893</v>
+        <v>1.050288697109295</v>
       </c>
       <c r="M12">
-        <v>1.034642670934397</v>
+        <v>1.072910915945066</v>
       </c>
       <c r="N12">
-        <v>1.010957187627274</v>
+        <v>1.057934784880258</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9793239314796299</v>
+        <v>1.049969689762352</v>
       </c>
       <c r="D13">
-        <v>1.028712640847667</v>
+        <v>1.064100390523126</v>
       </c>
       <c r="E13">
-        <v>0.9859515289445345</v>
+        <v>1.046788656045539</v>
       </c>
       <c r="F13">
-        <v>1.020317914195647</v>
+        <v>1.069490221810056</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045950914158049</v>
+        <v>1.052235103486756</v>
       </c>
       <c r="J13">
-        <v>1.009933940844558</v>
+        <v>1.056497901627803</v>
       </c>
       <c r="K13">
-        <v>1.04326741903374</v>
+        <v>1.067600623183618</v>
       </c>
       <c r="L13">
-        <v>1.001307959662451</v>
+        <v>1.050351136805297</v>
       </c>
       <c r="M13">
-        <v>1.035023176426902</v>
+        <v>1.072971527483271</v>
       </c>
       <c r="N13">
-        <v>1.0113681628816</v>
+        <v>1.057998249830118</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9810512415182585</v>
+        <v>1.050237845725593</v>
       </c>
       <c r="D14">
-        <v>1.029897532234854</v>
+        <v>1.064287349810897</v>
       </c>
       <c r="E14">
-        <v>0.9874505191174502</v>
+        <v>1.047025237214639</v>
       </c>
       <c r="F14">
-        <v>1.021723301984449</v>
+        <v>1.069720038401615</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04667975833055</v>
+        <v>1.052329858195316</v>
       </c>
       <c r="J14">
-        <v>1.011270939129137</v>
+        <v>1.056705461528874</v>
       </c>
       <c r="K14">
-        <v>1.044293082320585</v>
+        <v>1.067756268567413</v>
       </c>
       <c r="L14">
-        <v>1.002630330693934</v>
+        <v>1.050555619852106</v>
       </c>
       <c r="M14">
-        <v>1.036263303431688</v>
+        <v>1.073170065305779</v>
       </c>
       <c r="N14">
-        <v>1.012707059857099</v>
+        <v>1.058206104490055</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9821081131331609</v>
+        <v>1.050403002363022</v>
       </c>
       <c r="D15">
-        <v>1.030623012047053</v>
+        <v>1.064402505987406</v>
       </c>
       <c r="E15">
-        <v>0.9883677879585429</v>
+        <v>1.047170934712272</v>
       </c>
       <c r="F15">
-        <v>1.022583792754547</v>
+        <v>1.069861602946341</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047125530839101</v>
+        <v>1.052388182615136</v>
       </c>
       <c r="J15">
-        <v>1.012088911180179</v>
+        <v>1.05683327515403</v>
       </c>
       <c r="K15">
-        <v>1.044920788879972</v>
+        <v>1.067852116769566</v>
       </c>
       <c r="L15">
-        <v>1.003439287515372</v>
+        <v>1.050681528222224</v>
       </c>
       <c r="M15">
-        <v>1.037022384752853</v>
+        <v>1.07329234492318</v>
       </c>
       <c r="N15">
-        <v>1.013526193522276</v>
+        <v>1.05833409962522</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.988151245577544</v>
+        <v>1.051363330806479</v>
       </c>
       <c r="D16">
-        <v>1.034778358788721</v>
+        <v>1.065072225317138</v>
       </c>
       <c r="E16">
-        <v>0.9936140042201549</v>
+        <v>1.048017927117743</v>
       </c>
       <c r="F16">
-        <v>1.027512606763338</v>
+        <v>1.070685070904256</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049671620009851</v>
+        <v>1.052726787552267</v>
       </c>
       <c r="J16">
-        <v>1.016764666991963</v>
+        <v>1.057576130423515</v>
       </c>
       <c r="K16">
-        <v>1.048511922444159</v>
+        <v>1.068409234645074</v>
       </c>
       <c r="L16">
-        <v>1.008062505114123</v>
+        <v>1.051413149231064</v>
       </c>
       <c r="M16">
-        <v>1.041366993757451</v>
+        <v>1.074003366721282</v>
       </c>
       <c r="N16">
-        <v>1.018208589443629</v>
+        <v>1.059078009834393</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9918510344659978</v>
+        <v>1.051964888376488</v>
       </c>
       <c r="D17">
-        <v>1.037328260124275</v>
+        <v>1.065491852196431</v>
       </c>
       <c r="E17">
-        <v>0.9968269161481501</v>
+        <v>1.048548324337379</v>
       </c>
       <c r="F17">
-        <v>1.030537350064955</v>
+        <v>1.071201177307862</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051227817042456</v>
+        <v>1.052938424109799</v>
       </c>
       <c r="J17">
-        <v>1.019626007753074</v>
+        <v>1.058041164418215</v>
       </c>
       <c r="K17">
-        <v>1.050711983551734</v>
+        <v>1.068758035070301</v>
       </c>
       <c r="L17">
-        <v>1.010890810702337</v>
+        <v>1.051871008969096</v>
       </c>
       <c r="M17">
-        <v>1.044030327407196</v>
+        <v>1.074448762479639</v>
       </c>
       <c r="N17">
-        <v>1.021073993636821</v>
+        <v>1.059543704230707</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9939779718483187</v>
+        <v>1.0523154710123</v>
       </c>
       <c r="D18">
-        <v>1.03879613505364</v>
+        <v>1.065736445794432</v>
       </c>
       <c r="E18">
-        <v>0.9986742717329926</v>
+        <v>1.048857375489693</v>
       </c>
       <c r="F18">
-        <v>1.032278672686506</v>
+        <v>1.071502059687914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052121460759357</v>
+        <v>1.053061595109414</v>
       </c>
       <c r="J18">
-        <v>1.021270430606852</v>
+        <v>1.058312075274828</v>
       </c>
       <c r="K18">
-        <v>1.051977191505471</v>
+        <v>1.068961246626787</v>
       </c>
       <c r="L18">
-        <v>1.012515928279114</v>
+        <v>1.052137689435101</v>
       </c>
       <c r="M18">
-        <v>1.045562561787978</v>
+        <v>1.07470833690595</v>
       </c>
       <c r="N18">
-        <v>1.022720751759669</v>
+        <v>1.05981499981181</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9946980793534707</v>
+        <v>1.052434960827993</v>
       </c>
       <c r="D19">
-        <v>1.039293432270696</v>
+        <v>1.065819817625231</v>
       </c>
       <c r="E19">
-        <v>0.9992997711555531</v>
+        <v>1.048962699882341</v>
       </c>
       <c r="F19">
-        <v>1.032868629802786</v>
+        <v>1.07160462694911</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052423846180014</v>
+        <v>1.053103547055343</v>
       </c>
       <c r="J19">
-        <v>1.021827085812401</v>
+        <v>1.058404392230032</v>
       </c>
       <c r="K19">
-        <v>1.052405612913883</v>
+        <v>1.069030496343321</v>
       </c>
       <c r="L19">
-        <v>1.013065994023452</v>
+        <v>1.052228556183693</v>
       </c>
       <c r="M19">
-        <v>1.046081507030978</v>
+        <v>1.074796808415312</v>
       </c>
       <c r="N19">
-        <v>1.02327819747946</v>
+        <v>1.059907447867679</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9914573337148646</v>
+        <v>1.051900377615161</v>
       </c>
       <c r="D20">
-        <v>1.037056711543743</v>
+        <v>1.065446847587282</v>
       </c>
       <c r="E20">
-        <v>0.9964849909569599</v>
+        <v>1.048491450968374</v>
       </c>
       <c r="F20">
-        <v>1.030215223894861</v>
+        <v>1.071145819932602</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051062320746816</v>
+        <v>1.052915745780941</v>
       </c>
       <c r="J20">
-        <v>1.019321579526877</v>
+        <v>1.057991305451734</v>
       </c>
       <c r="K20">
-        <v>1.050477824123012</v>
+        <v>1.068720636725915</v>
       </c>
       <c r="L20">
-        <v>1.010589930438791</v>
+        <v>1.051821924468931</v>
       </c>
       <c r="M20">
-        <v>1.043746797364179</v>
+        <v>1.074400998265596</v>
       </c>
       <c r="N20">
-        <v>1.020769133087625</v>
+        <v>1.059493774458774</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9805441402967277</v>
+        <v>1.050158893645014</v>
       </c>
       <c r="D21">
-        <v>1.029549569749782</v>
+        <v>1.064232302389564</v>
       </c>
       <c r="E21">
-        <v>0.9870104270973914</v>
+        <v>1.04695558413519</v>
       </c>
       <c r="F21">
-        <v>1.021310585986558</v>
+        <v>1.06965237004043</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046465822173284</v>
+        <v>1.052301967194859</v>
       </c>
       <c r="J21">
-        <v>1.010878442268397</v>
+        <v>1.056644355094089</v>
       </c>
       <c r="K21">
-        <v>1.043991938778158</v>
+        <v>1.067710445319132</v>
       </c>
       <c r="L21">
-        <v>1.002242141744067</v>
+        <v>1.050495421454648</v>
       </c>
       <c r="M21">
-        <v>1.035899165881435</v>
+        <v>1.073111610479278</v>
       </c>
       <c r="N21">
-        <v>1.012314005605796</v>
+        <v>1.058144911277125</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9733646186293782</v>
+        <v>1.049061207956447</v>
       </c>
       <c r="D22">
-        <v>1.024632457428197</v>
+        <v>1.063467119421177</v>
       </c>
       <c r="E22">
-        <v>0.9807815345321049</v>
+        <v>1.045986964395054</v>
       </c>
       <c r="F22">
-        <v>1.015478481063137</v>
+        <v>1.068711942166021</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043433813119147</v>
+        <v>1.051913571280373</v>
       </c>
       <c r="J22">
-        <v>1.005320072787478</v>
+        <v>1.055794386646723</v>
       </c>
       <c r="K22">
-        <v>1.03973124042304</v>
+        <v>1.067073116849247</v>
       </c>
       <c r="L22">
-        <v>0.99674357495477</v>
+        <v>1.04965789439103</v>
       </c>
       <c r="M22">
-        <v>1.030749418542734</v>
+        <v>1.072298914573113</v>
       </c>
       <c r="N22">
-        <v>1.006747742602661</v>
+        <v>1.057293735777071</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9772027738713296</v>
+        <v>1.049643376129396</v>
       </c>
       <c r="D23">
-        <v>1.027258954938108</v>
+        <v>1.063872906268571</v>
       </c>
       <c r="E23">
-        <v>0.9841110292605904</v>
+        <v>1.04650073202613</v>
       </c>
       <c r="F23">
-        <v>1.018593722832477</v>
+        <v>1.069210619462926</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045055413342763</v>
+        <v>1.052119704655062</v>
       </c>
       <c r="J23">
-        <v>1.008291874101981</v>
+        <v>1.056245266753048</v>
       </c>
       <c r="K23">
-        <v>1.042008309556624</v>
+        <v>1.067411185340063</v>
       </c>
       <c r="L23">
-        <v>0.9996836776256391</v>
+        <v>1.050102218504634</v>
       </c>
       <c r="M23">
-        <v>1.033501122354528</v>
+        <v>1.072729932604833</v>
       </c>
       <c r="N23">
-        <v>1.0097237642159</v>
+        <v>1.057745256184863</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9916353258097915</v>
+        <v>1.05192952816519</v>
       </c>
       <c r="D24">
-        <v>1.037179472502908</v>
+        <v>1.065467183751244</v>
       </c>
       <c r="E24">
-        <v>0.9966395743580558</v>
+        <v>1.048517150586379</v>
       </c>
       <c r="F24">
-        <v>1.030360849517988</v>
+        <v>1.071170834022972</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051137144687311</v>
+        <v>1.052925993985276</v>
       </c>
       <c r="J24">
-        <v>1.019459213101945</v>
+        <v>1.058013835609611</v>
       </c>
       <c r="K24">
-        <v>1.050583686260392</v>
+        <v>1.068737536162992</v>
       </c>
       <c r="L24">
-        <v>1.010725960956587</v>
+        <v>1.051844104820216</v>
       </c>
       <c r="M24">
-        <v>1.043874977780336</v>
+        <v>1.074422581529825</v>
       </c>
       <c r="N24">
-        <v>1.020906962118156</v>
+        <v>1.05951633661206</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007176742254767</v>
+        <v>1.054570920863576</v>
       </c>
       <c r="D25">
-        <v>1.047936621879469</v>
+        <v>1.067310696822605</v>
       </c>
       <c r="E25">
-        <v>1.010142236570461</v>
+        <v>1.050844552440964</v>
       </c>
       <c r="F25">
-        <v>1.043124381003246</v>
+        <v>1.073439548214332</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057648335014564</v>
+        <v>1.053850952337446</v>
       </c>
       <c r="J25">
-        <v>1.03146497097089</v>
+        <v>1.060053028233541</v>
       </c>
       <c r="K25">
-        <v>1.059833719767076</v>
+        <v>1.070267382039169</v>
       </c>
       <c r="L25">
-        <v>1.022585121471618</v>
+        <v>1.053850539653869</v>
       </c>
       <c r="M25">
-        <v>1.055088198442849</v>
+        <v>1.076378302954009</v>
       </c>
       <c r="N25">
-        <v>1.032929769540355</v>
+        <v>1.061558425123414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_127/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_127/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.056668791459715</v>
+        <v>1.018760352108479</v>
       </c>
       <c r="D2">
-        <v>1.06877599645973</v>
+        <v>1.056001600927087</v>
       </c>
       <c r="E2">
-        <v>1.052691140899335</v>
+        <v>1.020210626128472</v>
       </c>
       <c r="F2">
-        <v>1.075244493472078</v>
+        <v>1.052699256792799</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054580223426608</v>
+        <v>1.062466593490958</v>
       </c>
       <c r="J2">
-        <v>1.061669224238124</v>
+        <v>1.040394065667587</v>
       </c>
       <c r="K2">
-        <v>1.071480274395791</v>
+        <v>1.066732215957424</v>
       </c>
       <c r="L2">
-        <v>1.05543917352213</v>
+        <v>1.031395396226894</v>
       </c>
       <c r="M2">
-        <v>1.077931574523797</v>
+        <v>1.063470166765597</v>
       </c>
       <c r="N2">
-        <v>1.063176916311704</v>
+        <v>1.041871544575703</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058187082097106</v>
+        <v>1.026765198260134</v>
       </c>
       <c r="D3">
-        <v>1.069837089383537</v>
+        <v>1.061597238274478</v>
       </c>
       <c r="E3">
-        <v>1.054026462375493</v>
+        <v>1.027168925616452</v>
       </c>
       <c r="F3">
-        <v>1.07655252367017</v>
+        <v>1.059346785294987</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055104899635551</v>
+        <v>1.065774210830085</v>
       </c>
       <c r="J3">
-        <v>1.062836940710988</v>
+        <v>1.046551888653406</v>
       </c>
       <c r="K3">
-        <v>1.072356801852512</v>
+        <v>1.071498267949882</v>
       </c>
       <c r="L3">
-        <v>1.056586051399844</v>
+        <v>1.0374655874533</v>
       </c>
       <c r="M3">
-        <v>1.079055680242195</v>
+        <v>1.069272709575858</v>
       </c>
       <c r="N3">
-        <v>1.064346291075899</v>
+        <v>1.048038112376473</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059167296141315</v>
+        <v>1.03177532690173</v>
       </c>
       <c r="D4">
-        <v>1.07052240456511</v>
+        <v>1.065108394318977</v>
       </c>
       <c r="E4">
-        <v>1.054888035637026</v>
+        <v>1.031523734455674</v>
       </c>
       <c r="F4">
-        <v>1.077397783988321</v>
+        <v>1.063520274620348</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055442185329456</v>
+        <v>1.067833642567099</v>
       </c>
       <c r="J4">
-        <v>1.063589908028761</v>
+        <v>1.05039971988438</v>
       </c>
       <c r="K4">
-        <v>1.072922090208696</v>
+        <v>1.074479738207041</v>
       </c>
       <c r="L4">
-        <v>1.057325154484324</v>
+        <v>1.041256019313086</v>
       </c>
       <c r="M4">
-        <v>1.0797813769249</v>
+        <v>1.072908059273341</v>
       </c>
       <c r="N4">
-        <v>1.065100327693629</v>
+        <v>1.051891407969148</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059578855919119</v>
+        <v>1.033843429772721</v>
       </c>
       <c r="D5">
-        <v>1.070810208503757</v>
+        <v>1.066559695289276</v>
       </c>
       <c r="E5">
-        <v>1.055249658342478</v>
+        <v>1.033321185315913</v>
       </c>
       <c r="F5">
-        <v>1.077752868634738</v>
+        <v>1.065245936784529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055583453371064</v>
+        <v>1.068681080821153</v>
       </c>
       <c r="J5">
-        <v>1.063905834959876</v>
+        <v>1.051986480131477</v>
       </c>
       <c r="K5">
-        <v>1.07315929094637</v>
+        <v>1.075709935754798</v>
       </c>
       <c r="L5">
-        <v>1.057635162144732</v>
+        <v>1.042818473747395</v>
       </c>
       <c r="M5">
-        <v>1.080086064436976</v>
+        <v>1.074409393958338</v>
       </c>
       <c r="N5">
-        <v>1.065416703277224</v>
+        <v>1.053480421597799</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05964792827298</v>
+        <v>1.034188502530317</v>
       </c>
       <c r="D6">
-        <v>1.070858514440859</v>
+        <v>1.066801961217927</v>
       </c>
       <c r="E6">
-        <v>1.0553103424594</v>
+        <v>1.033621087854767</v>
       </c>
       <c r="F6">
-        <v>1.077812473672088</v>
+        <v>1.065534037912992</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055607142099205</v>
+        <v>1.068822321006863</v>
       </c>
       <c r="J6">
-        <v>1.06395884431055</v>
+        <v>1.052251144900724</v>
       </c>
       <c r="K6">
-        <v>1.073199091939814</v>
+        <v>1.075915166411976</v>
       </c>
       <c r="L6">
-        <v>1.057687172310785</v>
+        <v>1.04307904696717</v>
       </c>
       <c r="M6">
-        <v>1.080137199787901</v>
+        <v>1.074659936961956</v>
       </c>
       <c r="N6">
-        <v>1.065469787907256</v>
+        <v>1.053745462221376</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059172797463226</v>
+        <v>1.03180310786564</v>
       </c>
       <c r="D7">
-        <v>1.070526251398669</v>
+        <v>1.06512788225669</v>
       </c>
       <c r="E7">
-        <v>1.054892869936529</v>
+        <v>1.031547880406001</v>
       </c>
       <c r="F7">
-        <v>1.077402529671949</v>
+        <v>1.063543444255658</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055444075025991</v>
+        <v>1.067845036911819</v>
       </c>
       <c r="J7">
-        <v>1.063594131888882</v>
+        <v>1.050421041213006</v>
       </c>
       <c r="K7">
-        <v>1.072925261445494</v>
+        <v>1.07449626571476</v>
       </c>
       <c r="L7">
-        <v>1.057329299607069</v>
+        <v>1.041277016564775</v>
       </c>
       <c r="M7">
-        <v>1.079785449720992</v>
+        <v>1.072928224141932</v>
       </c>
       <c r="N7">
-        <v>1.065104557552117</v>
+        <v>1.051912759576506</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05718237068587</v>
+        <v>1.02150227064923</v>
       </c>
       <c r="D8">
-        <v>1.069134866171341</v>
+        <v>1.057916279131454</v>
       </c>
       <c r="E8">
-        <v>1.053142935341904</v>
+        <v>1.022594084167614</v>
       </c>
       <c r="F8">
-        <v>1.075686784475096</v>
+        <v>1.054973407308528</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054758000863465</v>
+        <v>1.063601784419157</v>
       </c>
       <c r="J8">
-        <v>1.062064407193245</v>
+        <v>1.042504606748798</v>
       </c>
       <c r="K8">
-        <v>1.071776893626905</v>
+        <v>1.068364980317215</v>
       </c>
       <c r="L8">
-        <v>1.055827392888272</v>
+        <v>1.033476460280092</v>
       </c>
       <c r="M8">
-        <v>1.078311821491944</v>
+        <v>1.065456865705103</v>
       </c>
       <c r="N8">
-        <v>1.063572660471949</v>
+        <v>1.043985082867331</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.053657536915863</v>
+        <v>1.001929609279333</v>
       </c>
       <c r="D9">
-        <v>1.066673036215274</v>
+        <v>1.044296435171069</v>
       </c>
       <c r="E9">
-        <v>1.050040039428788</v>
+        <v>1.005582435255986</v>
       </c>
       <c r="F9">
-        <v>1.072654554191685</v>
+        <v>1.038804492895512</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053531934376027</v>
+        <v>1.055455287526587</v>
       </c>
       <c r="J9">
-        <v>1.059348407711782</v>
+        <v>1.027414411595225</v>
       </c>
       <c r="K9">
-        <v>1.069738697405493</v>
+        <v>1.056709508351317</v>
       </c>
       <c r="L9">
-        <v>1.053157486885594</v>
+        <v>1.018585586012018</v>
       </c>
       <c r="M9">
-        <v>1.075702020366441</v>
+        <v>1.051297873762943</v>
       </c>
       <c r="N9">
-        <v>1.060852803959693</v>
+        <v>1.02887345790577</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051295308726367</v>
+        <v>0.9877288095878203</v>
       </c>
       <c r="D10">
-        <v>1.065024780622808</v>
+        <v>1.034487496593472</v>
       </c>
       <c r="E10">
-        <v>1.047957943513224</v>
+        <v>0.9932472059297915</v>
       </c>
       <c r="F10">
-        <v>1.070626724937608</v>
+        <v>1.027167592225537</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052702833544543</v>
+        <v>1.049493804540031</v>
       </c>
       <c r="J10">
-        <v>1.05752353148338</v>
+        <v>1.016437896986911</v>
       </c>
       <c r="K10">
-        <v>1.068369784531649</v>
+        <v>1.048260789137004</v>
       </c>
       <c r="L10">
-        <v>1.051361354850346</v>
+        <v>1.00773946401913</v>
       </c>
       <c r="M10">
-        <v>1.073953003139323</v>
+        <v>1.041063061418967</v>
       </c>
       <c r="N10">
-        <v>1.059025336197731</v>
+        <v>1.017881355387689</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050269375117456</v>
+        <v>0.9812534125465594</v>
       </c>
       <c r="D11">
-        <v>1.064309333321924</v>
+        <v>1.030036281841449</v>
       </c>
       <c r="E11">
-        <v>1.047053052465871</v>
+        <v>0.9876259796425217</v>
       </c>
       <c r="F11">
-        <v>1.069747062681743</v>
+        <v>1.02188787229638</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052340994729449</v>
+        <v>1.046765041659816</v>
       </c>
       <c r="J11">
-        <v>1.056729863216388</v>
+        <v>1.011427415622737</v>
       </c>
       <c r="K11">
-        <v>1.067774567356987</v>
+        <v>1.044413149191573</v>
       </c>
       <c r="L11">
-        <v>1.050579658418299</v>
+        <v>1.002785086518425</v>
       </c>
       <c r="M11">
-        <v>1.073193409181385</v>
+        <v>1.036408492206961</v>
       </c>
       <c r="N11">
-        <v>1.058230540830765</v>
+        <v>1.012863758565267</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049887824170208</v>
+        <v>0.9787937745468224</v>
       </c>
       <c r="D12">
-        <v>1.064043316903167</v>
+        <v>1.028349167644814</v>
       </c>
       <c r="E12">
-        <v>1.046716425049979</v>
+        <v>0.9854914897605653</v>
       </c>
       <c r="F12">
-        <v>1.069420069289574</v>
+        <v>1.01988680420306</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052206161859452</v>
+        <v>1.045727142531832</v>
       </c>
       <c r="J12">
-        <v>1.056434526677642</v>
+        <v>1.009523548394584</v>
       </c>
       <c r="K12">
-        <v>1.067553100708999</v>
+        <v>1.042952676369823</v>
       </c>
       <c r="L12">
-        <v>1.050288697109295</v>
+        <v>1.00090203046893</v>
       </c>
       <c r="M12">
-        <v>1.072910915945066</v>
+        <v>1.034642670934398</v>
       </c>
       <c r="N12">
-        <v>1.057934784880258</v>
+        <v>1.010957187627273</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049969689762352</v>
+        <v>0.9793239314796305</v>
       </c>
       <c r="D13">
-        <v>1.064100390523126</v>
+        <v>1.028712640847668</v>
       </c>
       <c r="E13">
-        <v>1.046788656045539</v>
+        <v>0.9859515289445352</v>
       </c>
       <c r="F13">
-        <v>1.069490221810056</v>
+        <v>1.020317914195648</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052235103486756</v>
+        <v>1.045950914158049</v>
       </c>
       <c r="J13">
-        <v>1.056497901627803</v>
+        <v>1.009933940844559</v>
       </c>
       <c r="K13">
-        <v>1.067600623183618</v>
+        <v>1.043267419033741</v>
       </c>
       <c r="L13">
-        <v>1.050351136805297</v>
+        <v>1.001307959662451</v>
       </c>
       <c r="M13">
-        <v>1.072971527483271</v>
+        <v>1.035023176426903</v>
       </c>
       <c r="N13">
-        <v>1.057998249830118</v>
+        <v>1.0113681628816</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050237845725593</v>
+        <v>0.9810512415182593</v>
       </c>
       <c r="D14">
-        <v>1.064287349810897</v>
+        <v>1.029897532234855</v>
       </c>
       <c r="E14">
-        <v>1.047025237214639</v>
+        <v>0.9874505191174507</v>
       </c>
       <c r="F14">
-        <v>1.069720038401615</v>
+        <v>1.02172330198445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052329858195316</v>
+        <v>1.04667975833055</v>
       </c>
       <c r="J14">
-        <v>1.056705461528874</v>
+        <v>1.011270939129138</v>
       </c>
       <c r="K14">
-        <v>1.067756268567413</v>
+        <v>1.044293082320585</v>
       </c>
       <c r="L14">
-        <v>1.050555619852106</v>
+        <v>1.002630330693935</v>
       </c>
       <c r="M14">
-        <v>1.073170065305779</v>
+        <v>1.036263303431688</v>
       </c>
       <c r="N14">
-        <v>1.058206104490055</v>
+        <v>1.012707059857099</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050403002363022</v>
+        <v>0.9821081131331614</v>
       </c>
       <c r="D15">
-        <v>1.064402505987406</v>
+        <v>1.030623012047053</v>
       </c>
       <c r="E15">
-        <v>1.047170934712272</v>
+        <v>0.988367787958543</v>
       </c>
       <c r="F15">
-        <v>1.069861602946341</v>
+        <v>1.022583792754547</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052388182615136</v>
+        <v>1.047125530839101</v>
       </c>
       <c r="J15">
-        <v>1.05683327515403</v>
+        <v>1.01208891118018</v>
       </c>
       <c r="K15">
-        <v>1.067852116769566</v>
+        <v>1.044920788879972</v>
       </c>
       <c r="L15">
-        <v>1.050681528222224</v>
+        <v>1.003439287515372</v>
       </c>
       <c r="M15">
-        <v>1.07329234492318</v>
+        <v>1.037022384752854</v>
       </c>
       <c r="N15">
-        <v>1.05833409962522</v>
+        <v>1.013526193522276</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051363330806479</v>
+        <v>0.9881512455775425</v>
       </c>
       <c r="D16">
-        <v>1.065072225317138</v>
+        <v>1.03477835878872</v>
       </c>
       <c r="E16">
-        <v>1.048017927117743</v>
+        <v>0.9936140042201537</v>
       </c>
       <c r="F16">
-        <v>1.070685070904256</v>
+        <v>1.027512606763337</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052726787552267</v>
+        <v>1.04967162000985</v>
       </c>
       <c r="J16">
-        <v>1.057576130423515</v>
+        <v>1.016764666991962</v>
       </c>
       <c r="K16">
-        <v>1.068409234645074</v>
+        <v>1.048511922444157</v>
       </c>
       <c r="L16">
-        <v>1.051413149231064</v>
+        <v>1.008062505114121</v>
       </c>
       <c r="M16">
-        <v>1.074003366721282</v>
+        <v>1.04136699375745</v>
       </c>
       <c r="N16">
-        <v>1.059078009834393</v>
+        <v>1.018208589443628</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051964888376488</v>
+        <v>0.9918510344659978</v>
       </c>
       <c r="D17">
-        <v>1.065491852196431</v>
+        <v>1.037328260124274</v>
       </c>
       <c r="E17">
-        <v>1.048548324337379</v>
+        <v>0.9968269161481497</v>
       </c>
       <c r="F17">
-        <v>1.071201177307862</v>
+        <v>1.030537350064954</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052938424109799</v>
+        <v>1.051227817042456</v>
       </c>
       <c r="J17">
-        <v>1.058041164418215</v>
+        <v>1.019626007753074</v>
       </c>
       <c r="K17">
-        <v>1.068758035070301</v>
+        <v>1.050711983551734</v>
       </c>
       <c r="L17">
-        <v>1.051871008969096</v>
+        <v>1.010890810702337</v>
       </c>
       <c r="M17">
-        <v>1.074448762479639</v>
+        <v>1.044030327407196</v>
       </c>
       <c r="N17">
-        <v>1.059543704230707</v>
+        <v>1.021073993636821</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0523154710123</v>
+        <v>0.9939779718483175</v>
       </c>
       <c r="D18">
-        <v>1.065736445794432</v>
+        <v>1.038796135053639</v>
       </c>
       <c r="E18">
-        <v>1.048857375489693</v>
+        <v>0.9986742717329914</v>
       </c>
       <c r="F18">
-        <v>1.071502059687914</v>
+        <v>1.032278672686505</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053061595109414</v>
+        <v>1.052121460759357</v>
       </c>
       <c r="J18">
-        <v>1.058312075274828</v>
+        <v>1.021270430606851</v>
       </c>
       <c r="K18">
-        <v>1.068961246626787</v>
+        <v>1.051977191505471</v>
       </c>
       <c r="L18">
-        <v>1.052137689435101</v>
+        <v>1.012515928279112</v>
       </c>
       <c r="M18">
-        <v>1.07470833690595</v>
+        <v>1.045562561787978</v>
       </c>
       <c r="N18">
-        <v>1.05981499981181</v>
+        <v>1.022720751759668</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.052434960827993</v>
+        <v>0.9946980793534708</v>
       </c>
       <c r="D19">
-        <v>1.065819817625231</v>
+        <v>1.039293432270696</v>
       </c>
       <c r="E19">
-        <v>1.048962699882341</v>
+        <v>0.9992997711555534</v>
       </c>
       <c r="F19">
-        <v>1.07160462694911</v>
+        <v>1.032868629802786</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053103547055343</v>
+        <v>1.052423846180014</v>
       </c>
       <c r="J19">
-        <v>1.058404392230032</v>
+        <v>1.021827085812401</v>
       </c>
       <c r="K19">
-        <v>1.069030496343321</v>
+        <v>1.052405612913884</v>
       </c>
       <c r="L19">
-        <v>1.052228556183693</v>
+        <v>1.013065994023452</v>
       </c>
       <c r="M19">
-        <v>1.074796808415312</v>
+        <v>1.046081507030979</v>
       </c>
       <c r="N19">
-        <v>1.059907447867679</v>
+        <v>1.02327819747946</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051900377615161</v>
+        <v>0.991457333714865</v>
       </c>
       <c r="D20">
-        <v>1.065446847587282</v>
+        <v>1.037056711543744</v>
       </c>
       <c r="E20">
-        <v>1.048491450968374</v>
+        <v>0.9964849909569603</v>
       </c>
       <c r="F20">
-        <v>1.071145819932602</v>
+        <v>1.030215223894862</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052915745780941</v>
+        <v>1.051062320746816</v>
       </c>
       <c r="J20">
-        <v>1.057991305451734</v>
+        <v>1.019321579526878</v>
       </c>
       <c r="K20">
-        <v>1.068720636725915</v>
+        <v>1.050477824123012</v>
       </c>
       <c r="L20">
-        <v>1.051821924468931</v>
+        <v>1.010589930438791</v>
       </c>
       <c r="M20">
-        <v>1.074400998265596</v>
+        <v>1.043746797364179</v>
       </c>
       <c r="N20">
-        <v>1.059493774458774</v>
+        <v>1.020769133087625</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050158893645014</v>
+        <v>0.9805441402967291</v>
       </c>
       <c r="D21">
-        <v>1.064232302389564</v>
+        <v>1.029549569749783</v>
       </c>
       <c r="E21">
-        <v>1.04695558413519</v>
+        <v>0.9870104270973926</v>
       </c>
       <c r="F21">
-        <v>1.06965237004043</v>
+        <v>1.02131058598656</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052301967194859</v>
+        <v>1.046465822173285</v>
       </c>
       <c r="J21">
-        <v>1.056644355094089</v>
+        <v>1.010878442268398</v>
       </c>
       <c r="K21">
-        <v>1.067710445319132</v>
+        <v>1.043991938778158</v>
       </c>
       <c r="L21">
-        <v>1.050495421454648</v>
+        <v>1.002242141744068</v>
       </c>
       <c r="M21">
-        <v>1.073111610479278</v>
+        <v>1.035899165881437</v>
       </c>
       <c r="N21">
-        <v>1.058144911277125</v>
+        <v>1.012314005605797</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049061207956447</v>
+        <v>0.973364618629375</v>
       </c>
       <c r="D22">
-        <v>1.063467119421177</v>
+        <v>1.024632457428195</v>
       </c>
       <c r="E22">
-        <v>1.045986964395054</v>
+        <v>0.9807815345321022</v>
       </c>
       <c r="F22">
-        <v>1.068711942166021</v>
+        <v>1.015478481063134</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051913571280373</v>
+        <v>1.043433813119145</v>
       </c>
       <c r="J22">
-        <v>1.055794386646723</v>
+        <v>1.005320072787476</v>
       </c>
       <c r="K22">
-        <v>1.067073116849247</v>
+        <v>1.039731240423038</v>
       </c>
       <c r="L22">
-        <v>1.04965789439103</v>
+        <v>0.9967435749547672</v>
       </c>
       <c r="M22">
-        <v>1.072298914573113</v>
+        <v>1.030749418542732</v>
       </c>
       <c r="N22">
-        <v>1.057293735777071</v>
+        <v>1.006747742602658</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049643376129396</v>
+        <v>0.9772027738713296</v>
       </c>
       <c r="D23">
-        <v>1.063872906268571</v>
+        <v>1.027258954938108</v>
       </c>
       <c r="E23">
-        <v>1.04650073202613</v>
+        <v>0.9841110292605902</v>
       </c>
       <c r="F23">
-        <v>1.069210619462926</v>
+        <v>1.018593722832477</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052119704655062</v>
+        <v>1.045055413342763</v>
       </c>
       <c r="J23">
-        <v>1.056245266753048</v>
+        <v>1.008291874101981</v>
       </c>
       <c r="K23">
-        <v>1.067411185340063</v>
+        <v>1.042008309556624</v>
       </c>
       <c r="L23">
-        <v>1.050102218504634</v>
+        <v>0.9996836776256391</v>
       </c>
       <c r="M23">
-        <v>1.072729932604833</v>
+        <v>1.033501122354528</v>
       </c>
       <c r="N23">
-        <v>1.057745256184863</v>
+        <v>1.0097237642159</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.05192952816519</v>
+        <v>0.9916353258097921</v>
       </c>
       <c r="D24">
-        <v>1.065467183751244</v>
+        <v>1.037179472502909</v>
       </c>
       <c r="E24">
-        <v>1.048517150586379</v>
+        <v>0.9966395743580558</v>
       </c>
       <c r="F24">
-        <v>1.071170834022972</v>
+        <v>1.030360849517989</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052925993985276</v>
+        <v>1.051137144687312</v>
       </c>
       <c r="J24">
-        <v>1.058013835609611</v>
+        <v>1.019459213101946</v>
       </c>
       <c r="K24">
-        <v>1.068737536162992</v>
+        <v>1.050583686260392</v>
       </c>
       <c r="L24">
-        <v>1.051844104820216</v>
+        <v>1.010725960956587</v>
       </c>
       <c r="M24">
-        <v>1.074422581529825</v>
+        <v>1.043874977780337</v>
       </c>
       <c r="N24">
-        <v>1.05951633661206</v>
+        <v>1.020906962118157</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.054570920863576</v>
+        <v>1.007176742254768</v>
       </c>
       <c r="D25">
-        <v>1.067310696822605</v>
+        <v>1.047936621879469</v>
       </c>
       <c r="E25">
-        <v>1.050844552440964</v>
+        <v>1.010142236570462</v>
       </c>
       <c r="F25">
-        <v>1.073439548214332</v>
+        <v>1.043124381003246</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053850952337446</v>
+        <v>1.057648335014564</v>
       </c>
       <c r="J25">
-        <v>1.060053028233541</v>
+        <v>1.031464970970891</v>
       </c>
       <c r="K25">
-        <v>1.070267382039169</v>
+        <v>1.059833719767075</v>
       </c>
       <c r="L25">
-        <v>1.053850539653869</v>
+        <v>1.022585121471618</v>
       </c>
       <c r="M25">
-        <v>1.076378302954009</v>
+        <v>1.055088198442849</v>
       </c>
       <c r="N25">
-        <v>1.061558425123414</v>
+        <v>1.032929769540355</v>
       </c>
     </row>
   </sheetData>
